--- a/MainTop/03.09.2024/печать_бирки.xlsx
+++ b/MainTop/03.09.2024/печать_бирки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Признак товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Единороги</t>
@@ -199,7 +202,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,10 +237,13 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>37</v>
@@ -249,13 +255,13 @@
         <v>3.17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>13.51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">ROUND(C2*K2,0)</f>
@@ -274,7 +280,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>112</v>
@@ -286,13 +292,13 @@
         <v>11.09</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>35.19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">ROUND(C3*K3,0)</f>
@@ -311,7 +317,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>99</v>
@@ -323,13 +329,13 @@
         <v>12.89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>34.2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">ROUND(C4*K4,0)</f>
@@ -348,7 +354,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>8</v>
@@ -360,13 +366,13 @@
         <v>1.33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>35.61</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">ROUND(C5*K5,0)</f>
@@ -385,7 +391,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>211</v>
@@ -397,13 +403,13 @@
         <v>35.46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>66.56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">ROUND(C6*K6,0)</f>
@@ -422,7 +428,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>62</v>
@@ -434,13 +440,13 @@
         <v>13.72</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>33.56</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">ROUND(C7*K7,0)</f>
@@ -459,7 +465,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>133</v>
@@ -471,13 +477,13 @@
         <v>35.28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>55.41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">ROUND(C8*K8,0)</f>
@@ -496,7 +502,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>27</v>
@@ -508,13 +514,13 @@
         <v>12.11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>19.22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">ROUND(C9*K9,0)</f>
@@ -533,7 +539,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>168</v>
@@ -545,13 +551,13 @@
         <v>78.87</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>85.64</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">ROUND(C10*K10,0)</f>
@@ -570,7 +576,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>20</v>
@@ -582,13 +588,13 @@
         <v>10.42</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>23.6</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">ROUND(C11*K11,0)</f>
@@ -607,7 +613,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>183</v>
@@ -619,13 +625,13 @@
         <v>97.34</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>111.13</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">ROUND(C12*K12,0)</f>
@@ -644,7 +650,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>35</v>
@@ -656,13 +662,13 @@
         <v>19.44</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>33.64</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">ROUND(C13*K13,0)</f>
@@ -681,7 +687,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>48</v>
@@ -693,13 +699,13 @@
         <v>45.71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>46.89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">ROUND(C14*K14,0)</f>
@@ -718,7 +724,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>81</v>
@@ -730,13 +736,13 @@
         <v>4.62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8.57</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">ROUND(C15*K15,0)</f>
@@ -754,18 +760,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H14)</f>
-        <v>426</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I14)</f>
-        <v>452</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">I16/2</f>
-        <v>226</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/03.09.2024/печать_бирки.xlsx
+++ b/MainTop/03.09.2024/печать_бирки.xlsx
@@ -202,7 +202,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,17 +265,17 @@
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">ROUND(C2*K2,0)</f>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">I2/2</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,17 +302,17 @@
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">ROUND(C3*K3,0)</f>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false">I3/2</f>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,17 +339,17 @@
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">ROUND(C4*K4,0)</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">I4/2</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,17 +376,17 @@
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">ROUND(C5*K5,0)</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">I5/2</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,17 +413,17 @@
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">ROUND(C6*K6,0)</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">I6/2</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,17 +450,17 @@
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">ROUND(C7*K7,0)</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">I7/2</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,17 +487,17 @@
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">ROUND(C8*K8,0)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">I8/2</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,17 +524,17 @@
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">ROUND(C9*K9,0)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">I9/2</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,17 +561,17 @@
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">ROUND(C10*K10,0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <f aca="false">I10/2</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,17 +598,17 @@
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">ROUND(C11*K11,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <f aca="false">I11/2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,17 +635,17 @@
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">ROUND(C12*K12,0)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">I12/2</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,17 +672,17 @@
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">ROUND(C13*K13,0)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">I13/2</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,17 +709,17 @@
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">ROUND(C14*K14,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">I14/2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,23 +746,32 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">ROUND(C15*K15,0)</f>
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">I15/2</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="1" t="n">
+        <f aca="false">SUM(H2:H15)</f>
+        <v>392</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">SUM(I2:I15)</f>
+        <v>440</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">SUM(J2:J15)</f>
+        <v>220</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/03.09.2024/печать_бирки.xlsx
+++ b/MainTop/03.09.2024/печать_бирки.xlsx
@@ -202,7 +202,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,11 +305,11 @@
         <v>51</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">I3/2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>5</v>
@@ -749,29 +749,20 @@
         <v>88</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">I15/2</f>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>392</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>440</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>220</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
